--- a/Instances/G0047224_SlowMoving_b4_fe0_el_rk0_ll1_l40_HFalse_c0.xlsx
+++ b/Instances/G0047224_SlowMoving_b4_fe0_el_rk0_ll1_l40_HFalse_c0.xlsx
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1868,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/G0047224_SlowMoving_b4_fe0_el_rk0_ll1_l40_HFalse_c0.xlsx
+++ b/Instances/G0047224_SlowMoving_b4_fe0_el_rk0_ll1_l40_HFalse_c0.xlsx
@@ -995,7 +995,7 @@
         <v>11.2</v>
       </c>
       <c r="E2" t="n">
-        <v>1400</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>44.8</v>
@@ -1027,7 +1027,7 @@
         <v>12.4</v>
       </c>
       <c r="E3" t="n">
-        <v>600</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
         <v>49.6</v>
@@ -1059,7 +1059,7 @@
         <v>12.3</v>
       </c>
       <c r="E4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
         <v>49.2</v>
@@ -1091,7 +1091,7 @@
         <v>11.1</v>
       </c>
       <c r="E5" t="n">
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
         <v>44.4</v>
@@ -1123,7 +1123,7 @@
         <v>1.2</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>4.8</v>
@@ -1155,7 +1155,7 @@
         <v>1.2</v>
       </c>
       <c r="E7" t="n">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>4.8</v>
@@ -1187,7 +1187,7 @@
         <v>1.1</v>
       </c>
       <c r="E8" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>4.4</v>
@@ -1219,7 +1219,7 @@
         <v>0.1</v>
       </c>
       <c r="E9" t="n">
-        <v>20</v>
+        <v>0.4</v>
       </c>
       <c r="F9" t="n">
         <v>0.4</v>
@@ -1251,7 +1251,7 @@
         <v>0.1</v>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>0.8</v>
       </c>
       <c r="F10" t="n">
         <v>0.4</v>
@@ -1283,7 +1283,7 @@
         <v>0.1</v>
       </c>
       <c r="E11" t="n">
-        <v>46</v>
+        <v>0.8</v>
       </c>
       <c r="F11" t="n">
         <v>0.4</v>
